--- a/Currency-Converter_Working-Files/Report.xlsx
+++ b/Currency-Converter_Working-Files/Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Data\Sonali\uipath_repo\uipath\Currency-Converter_Working-Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A537EB-8D03-4DD0-9807-697860B8D4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3030" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="4" r:id="rId1"/>
@@ -14,17 +20,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Report!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>EUR</t>
   </si>
@@ -55,6 +59,18 @@
     <t>JPY</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Venison - Racks Frenched</t>
   </si>
   <si>
@@ -215,13 +231,16 @@
   </si>
   <si>
     <t>Filling - Mince Meat</t>
+  </si>
+  <si>
+    <t>Total Sales USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,11 +295,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Converter" displayName="Converter" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Converter" displayName="Converter" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Currency"/>
-    <tableColumn id="3" name="Conversion" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Currency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Conversion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -329,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -381,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -575,27 +594,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="51" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="51" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -603,906 +622,925 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>11.19</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>6691</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>17.440000000000001</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>537</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>13.72</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>3966</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>6.78</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>2532</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>2.44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>5441</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>12.32</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>2088</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
         <v>6.25</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>4438</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
         <v>8.51</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>4947</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
         <v>29.57</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>4382</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
         <v>10.35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5073</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>24.59</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>6265</v>
+        <v>5073</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>5.76</v>
+        <v>24.59</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
+        <v>6265</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>5.76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
         <v>3822</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
         <v>1.34</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>4851</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
         <v>19.940000000000001</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>374</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
         <v>0.43</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>7464</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
         <v>22.33</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>7161</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
         <v>13.45</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>1785</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>26.07</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>1.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2684</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>25.05</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1965</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2477</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
-        <v>26.07</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>22.44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>8860</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>19.27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>502</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>26.98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3636</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>14.19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3372</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>11.32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2250</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>7537</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>14.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>7344</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>1.3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>2684</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>25.05</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1965</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>2477</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>22.44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>8860</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23">
-        <v>19.27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>502</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24">
-        <v>26.98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>3636</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25">
-        <v>14.19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>3372</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>11.32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2250</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>7537</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>14.5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>7344</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
+      <c r="B30">
         <v>0.59</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>5267</v>
       </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
         <v>8.9499999999999993</v>
       </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>5002</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
         <v>27.25</v>
       </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>1623</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32">
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
         <v>13.55</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>5951</v>
       </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>9.44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>2.86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>5565</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>1.86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>6381</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>14.89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>8595</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>7.46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1480</v>
+      </c>
+      <c r="E38" t="s">
         <v>44</v>
       </c>
-      <c r="B33">
-        <v>9.44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>5100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34">
-        <v>2.86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>5565</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35">
-        <v>1.86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>6381</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
-        <v>14.89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>8595</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
-        <v>7.46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1480</v>
-      </c>
-      <c r="E37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
         <v>23.04</v>
       </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>455</v>
       </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
         <v>18.350000000000001</v>
       </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>3501</v>
       </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
         <v>6.08</v>
       </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>3793</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41">
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
         <v>19.7</v>
       </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41">
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>3633</v>
       </c>
-      <c r="E41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
         <v>25.83</v>
       </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42">
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>3677</v>
       </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43">
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
         <v>21.52</v>
       </c>
-      <c r="C43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43">
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>324</v>
       </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44">
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
         <v>19.47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>3998</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>20.09</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45">
-        <v>1996</v>
+        <v>3998</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B46">
-        <v>2.0499999999999998</v>
+        <v>20.09</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46">
+        <v>1996</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>5990</v>
       </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47">
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48">
         <v>23.23</v>
       </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>7160</v>
       </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48">
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
         <v>8.8800000000000008</v>
       </c>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>6880</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49">
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
         <v>10.3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>2964</v>
       </c>
-      <c r="E49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
       <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1511,20 +1549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1532,35 +1570,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,21 +1622,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B47328280439544AB5C41C56297158F8" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fabe9a139e808be419ddedd7fa102e6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="825ee06b-ca9e-4fae-a309-081319cc5c11" xmlns:ns3="328982d7-d2af-46e2-9ab4-9b069b3e82d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77b7738b4c2769ab1dab0c0abe4f9661" ns2:_="" ns3:_="">
     <xsd:import namespace="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
@@ -1783,24 +1818,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52CCE4E5-9104-4B74-9690-16E22278802F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8663CF9-7888-493F-93A2-1BE0E1617302}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0018CC9-F7DC-4545-9882-7FE098929714}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1817,4 +1850,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52CCE4E5-9104-4B74-9690-16E22278802F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8663CF9-7888-493F-93A2-1BE0E1617302}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>